--- a/db/db_outline.xlsx
+++ b/db/db_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\GATechBootCamp\Homework\Git-Fit\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF51FF96-E2CA-4F23-BC96-13F928456CD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE33234-49E1-41E1-A439-917CED19B23F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B5F7193F-A531-4B56-A67B-A728669FD32B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>*Display match (top 3)</t>
+  </si>
+  <si>
+    <t>**chatkit</t>
+  </si>
+  <si>
+    <t>hashing algorithem</t>
+  </si>
+  <si>
+    <t>Weight each of the categories and add them together - 20 vs 23..</t>
+  </si>
+  <si>
+    <t>match then value</t>
+  </si>
+  <si>
+    <t>distance of the gym location via miles</t>
   </si>
 </sst>
 </file>
@@ -556,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7011154F-897F-45BF-9AD4-784CA284CCC0}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -682,6 +697,9 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
@@ -717,6 +735,9 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
@@ -732,18 +753,21 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -751,15 +775,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>27</v>
       </c>
@@ -767,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -775,37 +802,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>50</v>
       </c>

--- a/db/db_outline.xlsx
+++ b/db/db_outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\GATechBootCamp\Homework\Git-Fit\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE33234-49E1-41E1-A439-917CED19B23F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9462A-63CC-4452-BC21-14A4AA2B6233}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B5F7193F-A531-4B56-A67B-A728669FD32B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>distance of the gym location via miles</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>intermediate</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -806,10 +812,16 @@
       <c r="C23" t="s">
         <v>28</v>
       </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
